--- a/data/input/employee_absence_data_20.xlsx
+++ b/data/input/employee_absence_data_20.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22959</v>
+        <v>65248</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Casa Grande</t>
+          <t>Giovanna Marques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,56 +482,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>6394.82</v>
+        <v>8718.209999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6349</v>
+        <v>19486</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Davi Rios</t>
+          <t>Benjamin Fonseca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>6779.76</v>
+        <v>2737.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75970</v>
+        <v>71066</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thiago da Conceição</t>
+          <t>Clara Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,51 +540,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45103</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>8967.84</v>
+        <v>2812.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34136</v>
+        <v>42769</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dom Souza</t>
+          <t>Maria Cecília Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>9092.26</v>
+        <v>6991.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9197</v>
+        <v>93984</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kaique Rocha</t>
+          <t>Felipe Peixoto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,31 +594,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45106</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>8912.969999999999</v>
+        <v>4060.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73154</v>
+        <v>99449</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Bruna Rezende</t>
+          <t>Sr. Thales Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,109 +627,109 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45087</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>3566.53</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77628</v>
+        <v>29718</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anthony Gabriel Nogueira</t>
+          <t>Srta. Catarina Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>10273.46</v>
+        <v>5841.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58201</v>
+        <v>10403</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole Fogaça</t>
+          <t>Levi Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>9585.469999999999</v>
+        <v>5911.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77454</v>
+        <v>35646</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brayan Ramos</t>
+          <t>Brenda Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>11537.71</v>
+        <v>7396.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91693</v>
+        <v>33075</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Davi Lucca Mendonça</t>
+          <t>Diego Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>10952.35</v>
+        <v>2889.22</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_20.xlsx
+++ b/data/input/employee_absence_data_20.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65248</v>
+        <v>94251</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giovanna Marques</t>
+          <t>Carolina Lopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>8718.209999999999</v>
+        <v>9334.860000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19486</v>
+        <v>17183</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin Fonseca</t>
+          <t>Sr. Antony Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,27 +511,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>2737.28</v>
+        <v>8415.690000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71066</v>
+        <v>57662</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clara Mendes</t>
+          <t>Sr. João Pedro Silveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,196 +540,196 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>2812.6</v>
+        <v>5027.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42769</v>
+        <v>57159</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Cecília Nunes</t>
+          <t>Maria Liz Melo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>6991.95</v>
+        <v>9325.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>93984</v>
+        <v>86497</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Felipe Peixoto</t>
+          <t>Emanuel Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>4060.42</v>
+        <v>3392.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99449</v>
+        <v>69918</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Thales Cavalcanti</t>
+          <t>Isadora Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>3656</v>
+        <v>5336.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29718</v>
+        <v>73558</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Catarina Vieira</t>
+          <t>Srta. Gabrielly da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>5841.91</v>
+        <v>3134.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10403</v>
+        <v>94144</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Levi Cunha</t>
+          <t>Maria Luísa Novais</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45091</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>5911.14</v>
+        <v>9926.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35646</v>
+        <v>77062</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brenda Ramos</t>
+          <t>Juan Nogueira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>7396.91</v>
+        <v>5676.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33075</v>
+        <v>97686</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diego Lopes</t>
+          <t>Sr. Thomas Siqueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>2889.22</v>
+        <v>9895.889999999999</v>
       </c>
     </row>
   </sheetData>
